--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-53/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-53/curvature_data.xlsx
@@ -379,30 +379,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>53723.667031</v>
+        <v>53613.535026</v>
       </c>
       <c r="B2">
-        <v>-0.00015841520936</v>
+        <v>-2.3758669731e-05</v>
       </c>
       <c r="C2">
-        <v>-0.00013209913367</v>
+        <v>-1.9758389067e-05</v>
       </c>
       <c r="D2">
-        <v>-5.3904856423e-05</v>
+        <v>-7.9040205007e-06</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>53656.199028</v>
+        <v>53624.335026</v>
       </c>
       <c r="B3">
-        <v>-0.0007193427</v>
+        <v>-0.00017156735296</v>
       </c>
       <c r="C3">
-        <v>-0.0006048907</v>
+        <v>-0.00014172239333</v>
       </c>
       <c r="D3">
-        <v>-0.0002048983</v>
+        <v>-5.3008852357e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -421,114 +421,114 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53613.535026</v>
+        <v>53645.803027</v>
       </c>
       <c r="B5">
-        <v>-2.3758669731e-05</v>
+        <v>-0.0005438759</v>
       </c>
       <c r="C5">
-        <v>-1.9758389067e-05</v>
+        <v>-0.0004508612</v>
       </c>
       <c r="D5">
-        <v>-7.9040205007e-06</v>
+        <v>-0.0001518111</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>53690.999029</v>
+        <v>53656.199028</v>
       </c>
       <c r="B6">
-        <v>-0.0007062664</v>
+        <v>-0.0007193427</v>
       </c>
       <c r="C6">
-        <v>-0.0005961034</v>
+        <v>-0.0006048907</v>
       </c>
       <c r="D6">
-        <v>-0.0002109604</v>
+        <v>-0.0002048983</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53702.19903</v>
+        <v>53666.935028</v>
       </c>
       <c r="B7">
-        <v>-0.0005284251</v>
+        <v>-0.0008884488</v>
       </c>
       <c r="C7">
-        <v>-0.000440739</v>
+        <v>-0.0007603567</v>
       </c>
       <c r="D7">
-        <v>-0.0001587659</v>
+        <v>-0.0002556789</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53645.803027</v>
+        <v>53690.999029</v>
       </c>
       <c r="B8">
-        <v>-0.0005438759</v>
+        <v>-0.0007062664</v>
       </c>
       <c r="C8">
-        <v>-0.0004508612</v>
+        <v>-0.0005961034</v>
       </c>
       <c r="D8">
-        <v>-0.0001518111</v>
+        <v>-0.0002109604</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>53666.935028</v>
+        <v>53702.19903</v>
       </c>
       <c r="B9">
-        <v>-0.0008884488</v>
+        <v>-0.0005284251</v>
       </c>
       <c r="C9">
-        <v>-0.0007603567</v>
+        <v>-0.000440739</v>
       </c>
       <c r="D9">
-        <v>-0.0002556789</v>
+        <v>-0.0001587659</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>53734.531031</v>
+        <v>53712.33503</v>
       </c>
       <c r="B10">
-        <v>-2.5406350801e-05</v>
+        <v>-0.0003495365</v>
       </c>
       <c r="C10">
-        <v>-2.165626666e-05</v>
+        <v>-0.0002892978</v>
       </c>
       <c r="D10">
-        <v>-1.0544177038e-05</v>
+        <v>-0.0001055855</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>53624.335026</v>
+        <v>53723.667031</v>
       </c>
       <c r="B11">
-        <v>-0.00017156735296</v>
+        <v>-0.00015841520936</v>
       </c>
       <c r="C11">
-        <v>-0.00014172239333</v>
+        <v>-0.00013209913367</v>
       </c>
       <c r="D11">
-        <v>-5.3008852357e-05</v>
+        <v>-5.3904856423e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>53712.33503</v>
+        <v>53734.531031</v>
       </c>
       <c r="B12">
-        <v>-0.0003495365</v>
+        <v>-2.5406350801e-05</v>
       </c>
       <c r="C12">
-        <v>-0.0002892978</v>
+        <v>-2.165626666e-05</v>
       </c>
       <c r="D12">
-        <v>-0.0001055855</v>
+        <v>-1.0544177038e-05</v>
       </c>
     </row>
   </sheetData>
